--- a/Class Demo Files/Excel Ch2a/MSI Sales Report.xlsx
+++ b/Class Demo Files/Excel Ch2a/MSI Sales Report.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\github\BUS 140\BUS-140\Class Demo Files\Excel Ch2a\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="11340" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Comparison" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>Jane E. Pedicini</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Motorcycle Specialties Incorporated</t>
   </si>
@@ -109,13 +114,19 @@
   </si>
   <si>
     <t># of Regions</t>
+  </si>
+  <si>
+    <t>2005 Rank</t>
+  </si>
+  <si>
+    <t>2004 Rank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -149,6 +160,11 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -203,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -238,6 +254,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,6 +268,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -295,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,7 +354,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,21 +566,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -565,14 +592,14 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
@@ -581,7 +608,7 @@
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -597,8 +624,14 @@
       <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -608,10 +641,24 @@
       <c r="C5" s="2">
         <v>314330</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="2">
+        <f>(B5-C5)/C5 %</f>
+        <v>16.12000127254796</v>
+      </c>
+      <c r="E5" s="2">
+        <f>C5/B5 %</f>
+        <v>86.117808219178087</v>
+      </c>
+      <c r="F5">
+        <f>RANK(B5,$B$5:$B$8)</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>RANK(C5, $C$5:$C$8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -621,10 +668,24 @@
       <c r="C6" s="2">
         <v>292120</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:D8" si="0">(B6-C6)/C6 %</f>
+        <v>21.268656716417912</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ref="E6:E8" si="1">C6/B6 %</f>
+        <v>82.461538461538467</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F8" si="2">RANK(B6,$B$5:$B$8)</f>
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G8" si="3">RANK(C6, $C$5:$C$8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -634,10 +695,24 @@
       <c r="C7" s="2">
         <v>262000</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.1450381679389317</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>104.32428127737516</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -647,63 +722,169 @@
       <c r="C8" s="2">
         <v>279996</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>10.873012471606737</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>90.193274062620787</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="9">
+        <f>SUM(B5:B8)</f>
+        <v>1280830</v>
+      </c>
+      <c r="C9" s="9">
+        <f>SUM(C5:C8)</f>
+        <v>1148446</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f>AVERAGE(B5:B8)</f>
+        <v>320207.5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:E13" si="4">AVERAGE(C5:C8)</f>
+        <v>287111.5</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(D5:D8)</f>
+        <v>11.029158073158419</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>90.774225505178123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <f>MAX(B5:B8)</f>
+        <v>365000</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:E14" si="5">MAX(C5:C8)</f>
+        <v>314330</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="5"/>
+        <v>21.268656716417912</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>104.32428127737516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <f>MIN(B5:B8)</f>
+        <v>251140</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:E15" si="6">MIN(C5:C8)</f>
+        <v>262000</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="6"/>
+        <v>-4.1450381679389317</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="6"/>
+        <v>82.461538461538467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <f>MEDIAN(B5:B8)</f>
+        <v>332345</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:E16" si="7">MEDIAN(C5:C8)</f>
+        <v>286058</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="7"/>
+        <v>13.496506872077347</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="7"/>
+        <v>88.15554114089943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
+      <c r="B17">
+        <f>COUNT(B5:B8)</f>
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:F17" si="8">COUNT(C5:C8)</f>
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Class Demo Files/Excel Ch2a/MSI Sales Report.xlsx
+++ b/Class Demo Files/Excel Ch2a/MSI Sales Report.xlsx
@@ -126,7 +126,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -166,6 +170,10 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,10 +224,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -259,9 +268,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -566,10 +578,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -577,13 +589,13 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.140625" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -591,15 +603,21 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="J1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
@@ -607,8 +625,11 @@
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -630,8 +651,11 @@
       <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -641,13 +665,13 @@
       <c r="C5" s="2">
         <v>314330</v>
       </c>
-      <c r="D5" s="2">
-        <f>(B5-C5)/C5 %</f>
-        <v>16.12000127254796</v>
-      </c>
-      <c r="E5" s="2">
-        <f>C5/B5 %</f>
-        <v>86.117808219178087</v>
+      <c r="D5" s="18">
+        <f>(B5-C5)/C5</f>
+        <v>0.1612000127254796</v>
+      </c>
+      <c r="E5" s="18">
+        <f>C5/B5</f>
+        <v>0.86117808219178082</v>
       </c>
       <c r="F5">
         <f>RANK(B5,$B$5:$B$8)</f>
@@ -658,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -668,13 +692,13 @@
       <c r="C6" s="2">
         <v>292120</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6:D8" si="0">(B6-C6)/C6 %</f>
-        <v>21.268656716417912</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" ref="E6:E8" si="1">C6/B6 %</f>
-        <v>82.461538461538467</v>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6:D8" si="0">(B6-C6)/C6</f>
+        <v>0.21268656716417911</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" ref="E6:E8" si="1">C6/B6</f>
+        <v>0.82461538461538464</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F8" si="2">RANK(B6,$B$5:$B$8)</f>
@@ -685,7 +709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -695,13 +719,13 @@
       <c r="C7" s="2">
         <v>262000</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="18">
         <f t="shared" si="0"/>
-        <v>-4.1450381679389317</v>
-      </c>
-      <c r="E7" s="2">
+        <v>-4.145038167938931E-2</v>
+      </c>
+      <c r="E7" s="18">
         <f t="shared" si="1"/>
-        <v>104.32428127737516</v>
+        <v>1.0432428127737516</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
@@ -712,7 +736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -722,13 +746,13 @@
       <c r="C8" s="2">
         <v>279996</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="18">
         <f t="shared" si="0"/>
-        <v>10.873012471606737</v>
-      </c>
-      <c r="E8" s="2">
+        <v>0.10873012471606737</v>
+      </c>
+      <c r="E8" s="18">
         <f t="shared" si="1"/>
-        <v>90.193274062620787</v>
+        <v>0.90193274062620798</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
@@ -738,8 +762,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f>J1*J2+J3/J4^2</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -754,28 +782,28 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -789,14 +817,14 @@
       </c>
       <c r="D13">
         <f>AVERAGE(D5:D8)</f>
-        <v>11.029158073158419</v>
+        <v>0.11029158073158418</v>
       </c>
       <c r="E13">
         <f t="shared" si="4"/>
-        <v>90.774225505178123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.9077422550517813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -810,14 +838,14 @@
       </c>
       <c r="D14">
         <f t="shared" si="5"/>
-        <v>21.268656716417912</v>
+        <v>0.21268656716417911</v>
       </c>
       <c r="E14">
         <f t="shared" si="5"/>
-        <v>104.32428127737516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1.0432428127737516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -825,20 +853,20 @@
         <f>MIN(B5:B8)</f>
         <v>251140</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="17">
         <f t="shared" ref="C15:E15" si="6">MIN(C5:C8)</f>
         <v>262000</v>
       </c>
       <c r="D15">
         <f t="shared" si="6"/>
-        <v>-4.1450381679389317</v>
+        <v>-4.145038167938931E-2</v>
       </c>
       <c r="E15">
         <f t="shared" si="6"/>
-        <v>82.461538461538467</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.82461538461538464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -852,11 +880,11 @@
       </c>
       <c r="D16">
         <f t="shared" si="7"/>
-        <v>13.496506872077347</v>
+        <v>0.13496506872077349</v>
       </c>
       <c r="E16">
         <f t="shared" si="7"/>
-        <v>88.15554114089943</v>
+        <v>0.8815554114089944</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -868,7 +896,7 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:F17" si="8">COUNT(C5:C8)</f>
+        <f t="shared" ref="C17:E17" si="8">COUNT(C5:C8)</f>
         <v>4</v>
       </c>
       <c r="D17">

--- a/Class Demo Files/Excel Ch2a/MSI Sales Report.xlsx
+++ b/Class Demo Files/Excel Ch2a/MSI Sales Report.xlsx
@@ -98,9 +98,6 @@
     <t>Minimum</t>
   </si>
   <si>
-    <t>Year 2005</t>
-  </si>
-  <si>
     <t>Year 2004</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>2004 Rank</t>
+  </si>
+  <si>
+    <t>2005</t>
   </si>
 </sst>
 </file>
@@ -128,7 +128,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -228,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -269,7 +269,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -619,7 +622,7 @@
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -633,23 +636,23 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -868,7 +871,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <f>MEDIAN(B5:B8)</f>
@@ -889,7 +892,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <f>COUNT(B5:B8)</f>
